--- a/xlsx/美国各州人口列表_intext.xlsx
+++ b/xlsx/美国各州人口列表_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>美国各州人口列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_加州_美国各州人口列表</t>
+    <t>政策_政策_美国_美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -71,9 +71,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
@@ -371,9 +368,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
   </si>
   <si>
@@ -389,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -407,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E5%B2%9B</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%B1%B3%E6%8B%89%E7%8E%AF%E7%A4%81</t>
@@ -437,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8_(%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97)</t>
   </si>
   <si>
-    <t>美國城市列表 (按人口排列)</t>
+    <t>美国城市列表 (按人口排列)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US_State_Lists</t>
@@ -455,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -479,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -509,25 +503,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -540,15 +534,6 @@
   </si>
   <si>
     <t>美国各州和领土格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -897,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1151,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1177,10 +1162,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1206,10 +1191,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1235,10 +1220,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1264,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1293,10 +1278,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1322,10 +1307,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1351,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1380,10 +1365,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1409,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1438,10 +1423,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1467,10 +1452,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1496,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1525,10 +1510,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1554,10 +1539,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1583,10 +1568,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1612,10 +1597,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1641,10 +1626,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1670,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1699,10 +1684,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1728,10 +1713,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1757,10 +1742,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1786,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1815,10 +1800,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1844,10 +1829,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1873,10 +1858,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1902,10 +1887,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1931,10 +1916,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1960,10 +1945,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1989,10 +1974,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2018,10 +2003,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>8</v>
@@ -2047,10 +2032,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2076,10 +2061,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2105,10 +2090,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2134,10 +2119,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2163,10 +2148,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2192,10 +2177,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2221,10 +2206,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2250,10 +2235,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2279,10 +2264,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2308,10 +2293,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2337,10 +2322,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2366,10 +2351,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2395,10 +2380,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2424,10 +2409,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2453,10 +2438,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2482,10 +2467,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2511,10 +2496,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2540,10 +2525,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2569,10 +2554,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2598,10 +2583,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2627,10 +2612,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2656,10 +2641,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2685,10 +2670,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2714,10 +2699,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2743,10 +2728,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2772,10 +2757,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2801,10 +2786,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2830,10 +2815,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2859,10 +2844,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2888,10 +2873,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2917,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2946,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2975,10 +2960,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3004,13 +2989,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -3062,10 +3047,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3091,10 +3076,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3120,10 +3105,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3149,10 +3134,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3178,10 +3163,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3207,10 +3192,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3236,10 +3221,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3265,10 +3250,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3294,10 +3279,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3323,10 +3308,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3352,10 +3337,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3381,10 +3366,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3410,10 +3395,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3439,10 +3424,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3468,10 +3453,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3480,64 +3465,6 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s">
-        <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>177</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" t="n">
         <v>3</v>
       </c>
     </row>
